--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200221.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200221.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200221（今天）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\check\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E65E288-A912-4C72-B848-2B1FBF2FD116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C7F816-65CB-4D97-B78E-20216EAAAB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -12180,47 +12180,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="26" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.87890625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="31.87890625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1171875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3515625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1171875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.46875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.64453125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.87890625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.64453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1171875" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.46875" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.46875" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.875" style="13"/>
+    <col min="40" max="40" width="5.1171875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.87890625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="15">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="409.5">
+    <row r="2" spans="1:40" ht="26" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -12407,7 +12407,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40" ht="409.5">
+    <row r="3" spans="1:40" ht="26" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="409.5">
+    <row r="4" spans="1:40" ht="26" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>3295</v>
       </c>
       <c r="C4" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D4" s="14">
         <v>43883.291666608799</v>
@@ -12513,7 +12513,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="409.5">
+    <row r="5" spans="1:40" ht="26" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>3295</v>
       </c>
       <c r="C5" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D5" s="14">
         <v>43883.291666608799</v>
@@ -12566,7 +12566,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="409.5">
+    <row r="6" spans="1:40" ht="26" customHeight="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>3295</v>
       </c>
       <c r="C6" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D6" s="14">
         <v>43883.291666608799</v>
@@ -12622,7 +12622,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="409.5">
+    <row r="7" spans="1:40" ht="26" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>3294</v>
       </c>
       <c r="C7" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D7" s="14">
         <v>43883.291666608799</v>
@@ -12675,7 +12675,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="409.5">
+    <row r="8" spans="1:40" ht="26" customHeight="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>3295</v>
       </c>
       <c r="C8" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D8" s="14">
         <v>43883.291666608799</v>
@@ -12731,7 +12731,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="409.5">
+    <row r="9" spans="1:40" ht="26" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>3295</v>
       </c>
       <c r="C9" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D9" s="14">
         <v>43883.291666608799</v>
@@ -12784,7 +12784,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="409.5">
+    <row r="10" spans="1:40" ht="26" customHeight="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>3295</v>
       </c>
       <c r="C10" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D10" s="14">
         <v>43883.291666608799</v>
@@ -12837,7 +12837,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="409.5">
+    <row r="11" spans="1:40" ht="26" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>3294</v>
       </c>
       <c r="C11" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D11" s="14">
         <v>43883.291666608799</v>
@@ -12890,7 +12890,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="409.5">
+    <row r="12" spans="1:40" ht="26" customHeight="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>3295</v>
       </c>
       <c r="C12" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D12" s="14">
         <v>43883.291666608799</v>
@@ -12943,7 +12943,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="409.5">
+    <row r="13" spans="1:40" ht="26" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>3295</v>
       </c>
       <c r="C13" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D13" s="14">
         <v>43883.291666608799</v>
@@ -12996,7 +12996,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="409.5">
+    <row r="14" spans="1:40" ht="26" customHeight="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>3295</v>
       </c>
       <c r="C14" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D14" s="14">
         <v>43883.291666608799</v>
@@ -13052,7 +13052,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="409.5">
+    <row r="15" spans="1:40" ht="26" customHeight="1">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>3295</v>
       </c>
       <c r="C15" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D15" s="14">
         <v>43883.291666608799</v>
@@ -13099,7 +13099,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="409.5">
+    <row r="16" spans="1:40" ht="26" customHeight="1">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>3294</v>
       </c>
       <c r="C16" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D16" s="14">
         <v>43883.291666608799</v>
@@ -13149,7 +13149,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="409.5">
+    <row r="17" spans="1:29" ht="26" customHeight="1">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>3295</v>
       </c>
       <c r="C17" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D17" s="14">
         <v>43883.291666608799</v>
@@ -13202,7 +13202,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="409.5">
+    <row r="18" spans="1:29" ht="26" customHeight="1">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>3295</v>
       </c>
       <c r="C18" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D18" s="14">
         <v>43883.291666608799</v>
@@ -13255,7 +13255,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="409.5">
+    <row r="19" spans="1:29" ht="26" customHeight="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>3295</v>
       </c>
       <c r="C19" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D19" s="14">
         <v>43883.291666608799</v>
@@ -13308,7 +13308,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="409.5">
+    <row r="20" spans="1:29" ht="26" customHeight="1">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>3295</v>
       </c>
       <c r="C20" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D20" s="14">
         <v>43883.291666608799</v>
@@ -13358,7 +13358,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="409.5">
+    <row r="21" spans="1:29" ht="26" customHeight="1">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>3295</v>
       </c>
       <c r="C21" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D21" s="14">
         <v>43883.291666608799</v>
@@ -13408,7 +13408,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="409.5">
+    <row r="22" spans="1:29" ht="26" customHeight="1">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>3294</v>
       </c>
       <c r="C22" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D22" s="14">
         <v>43883.291666608799</v>
@@ -13461,7 +13461,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="409.5">
+    <row r="23" spans="1:29" ht="26" customHeight="1">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>3295</v>
       </c>
       <c r="C23" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D23" s="14">
         <v>43883.291666608799</v>
@@ -13517,7 +13517,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="409.5">
+    <row r="24" spans="1:29" ht="26" customHeight="1">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>3295</v>
       </c>
       <c r="C24" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D24" s="14">
         <v>43883.291666608799</v>
@@ -13567,7 +13567,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="409.5">
+    <row r="25" spans="1:29" ht="26" customHeight="1">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>3295</v>
       </c>
       <c r="C25" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D25" s="14">
         <v>43883.291666608799</v>
@@ -13623,7 +13623,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="409.5">
+    <row r="26" spans="1:29" ht="26" customHeight="1">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>3294</v>
       </c>
       <c r="C26" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D26" s="14">
         <v>43883.291666608799</v>
@@ -13676,7 +13676,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="409.5">
+    <row r="27" spans="1:29" ht="26" customHeight="1">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>3295</v>
       </c>
       <c r="C27" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D27" s="14">
         <v>43883.291666608799</v>
@@ -13726,7 +13726,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="409.5">
+    <row r="28" spans="1:29" ht="26" customHeight="1">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>3295</v>
       </c>
       <c r="C28" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D28" s="14">
         <v>43883.291666608799</v>
@@ -13779,7 +13779,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="409.5">
+    <row r="29" spans="1:29" ht="26" customHeight="1">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>3295</v>
       </c>
       <c r="C29" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D29" s="14">
         <v>43883.291666608799</v>
@@ -13832,7 +13832,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="409.5">
+    <row r="30" spans="1:29" ht="26" customHeight="1">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>3294</v>
       </c>
       <c r="C30" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D30" s="14">
         <v>43883.291666608799</v>
@@ -13885,7 +13885,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="409.5">
+    <row r="31" spans="1:29" ht="26" customHeight="1">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>3295</v>
       </c>
       <c r="C31" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D31" s="14">
         <v>43883.291666608799</v>
@@ -13938,7 +13938,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="409.5">
+    <row r="32" spans="1:29" ht="26" customHeight="1">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>3295</v>
       </c>
       <c r="C32" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D32" s="14">
         <v>43883.291666608799</v>
@@ -13991,7 +13991,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="409.5">
+    <row r="33" spans="1:29" ht="26" customHeight="1">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>3295</v>
       </c>
       <c r="C33" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D33" s="14">
         <v>43883.291666608799</v>
@@ -14044,7 +14044,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="409.5">
+    <row r="34" spans="1:29" ht="26" customHeight="1">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>3295</v>
       </c>
       <c r="C34" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D34" s="14">
         <v>43883.291666608799</v>
@@ -14097,7 +14097,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="409.5">
+    <row r="35" spans="1:29" ht="26" customHeight="1">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>3294</v>
       </c>
       <c r="C35" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D35" s="14">
         <v>43883.291666608799</v>
@@ -14150,7 +14150,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="409.5">
+    <row r="36" spans="1:29" ht="26" customHeight="1">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>3295</v>
       </c>
       <c r="C36" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D36" s="14">
         <v>43883.291666608799</v>
@@ -14203,7 +14203,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="409.5">
+    <row r="37" spans="1:29" ht="26" customHeight="1">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>3295</v>
       </c>
       <c r="C37" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D37" s="14">
         <v>43883.291666608799</v>
@@ -14253,7 +14253,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="409.5">
+    <row r="38" spans="1:29" ht="26" customHeight="1">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>3295</v>
       </c>
       <c r="C38" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D38" s="14">
         <v>43883.291666608799</v>
@@ -14306,7 +14306,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="409.5">
+    <row r="39" spans="1:29" ht="26" customHeight="1">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>3295</v>
       </c>
       <c r="C39" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D39" s="14">
         <v>43883.291666608799</v>
@@ -14359,7 +14359,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="409.5">
+    <row r="40" spans="1:29" ht="26" customHeight="1">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>3294</v>
       </c>
       <c r="C40" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D40" s="14">
         <v>43883.291666608799</v>
@@ -14409,7 +14409,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="409.5">
+    <row r="41" spans="1:29" ht="26" customHeight="1">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>3294</v>
       </c>
       <c r="C41" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D41" s="14">
         <v>43883.291666608799</v>
@@ -14456,7 +14456,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="409.5">
+    <row r="42" spans="1:29" ht="26" customHeight="1">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>3295</v>
       </c>
       <c r="C42" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D42" s="14">
         <v>43883.291666608799</v>
@@ -14506,7 +14506,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="409.5">
+    <row r="43" spans="1:29" ht="26" customHeight="1">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>3294</v>
       </c>
       <c r="C43" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D43" s="14">
         <v>43883.291666608799</v>
@@ -14553,7 +14553,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="409.5">
+    <row r="44" spans="1:29" ht="26" customHeight="1">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>3295</v>
       </c>
       <c r="C44" s="14">
-        <v>43882.291666608799</v>
+        <v>43882.291666666664</v>
       </c>
       <c r="D44" s="14">
         <v>43883.291666608799</v>
@@ -14665,10 +14665,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
